--- a/biology/Zoologie/Callimedusa_tomopterna/Callimedusa_tomopterna.xlsx
+++ b/biology/Zoologie/Callimedusa_tomopterna/Callimedusa_tomopterna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Phyloméduse tigrine (Callimedusa tomopterna) est une espèce d'amphibiens de la famille des Phyllomedusidae[1] qui regroupe 63 espèces réparties dans 8 genres. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Phyloméduse tigrine (Callimedusa tomopterna) est une espèce d'amphibiens de la famille des Phyllomedusidae qui regroupe 63 espèces réparties dans 8 genres. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Répartition mondiale de Callimedusa tomopterna
-Cette espèce se rencontre au Pérou, en Équateur, en Colombie, dans le Sud du Venezuela, au Guyana, au Suriname, en Guyane, au Brésil et en Bolivie du niveau de la mer à 500 m d'altitude dans le bassin amazonien[1],[2].
+Cette espèce se rencontre au Pérou, en Équateur, en Colombie, dans le Sud du Venezuela, au Guyana, au Suriname, en Guyane, au Brésil et en Bolivie du niveau de la mer à 500 m d'altitude dans le bassin amazonien,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce de phyloméduse présente une robe verte plus ou moins ponctuée. La partie intérieure des pattes et les flancs tigrés sont caractéristiques. La gorge est blanchâtre. Les mâles mesurent de 44 à 54 mm et les femelles jusqu'à 60 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de phyloméduse présente une robe verte plus ou moins ponctuée. La partie intérieure des pattes et les flancs tigrés sont caractéristiques. La gorge est blanchâtre. Les mâles mesurent de 44 à 54 mm et les femelles jusqu'à 60 mm.
 			Equateur
 			Guyane
 			Guyane
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1868 : An examination of the Reptilia and Batrachia obtained by the Orton Expedition to Equador and the Upper Amazon, with notes on other species. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 20, p. 96-140 (texte intégral).</t>
         </is>
